--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD715BF7-8613-4321-B158-B3BBA6CB4570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715205FA-342E-421D-9712-34A0A482359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5038E03D-591E-439D-9EB5-F6A86EEED9BE}"/>
+    <workbookView xWindow="5508" yWindow="2892" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{5038E03D-591E-439D-9EB5-F6A86EEED9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Identitas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +34,310 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>NoInduk</t>
+  </si>
+  <si>
+    <t>Residivis</t>
+  </si>
+  <si>
+    <t>Nama Lengkap</t>
+  </si>
+  <si>
+    <t>Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>Nama Alias 1</t>
+  </si>
+  <si>
+    <t>Nama Alias 2</t>
+  </si>
+  <si>
+    <t>Nama Alias 3</t>
+  </si>
+  <si>
+    <t>Nama Kecil 1</t>
+  </si>
+  <si>
+    <t>Nama Kecil 2</t>
+  </si>
+  <si>
+    <t>Nama Kecil 3</t>
+  </si>
+  <si>
+    <t>Tempat Asal</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Suku</t>
+  </si>
+  <si>
+    <t>Status Perkawinan</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Alamat Rumah</t>
+  </si>
+  <si>
+    <t>Telepon</t>
+  </si>
+  <si>
+    <t>Kode POS</t>
+  </si>
+  <si>
+    <t>Jenis Pekerjaan</t>
+  </si>
+  <si>
+    <t>Bekerja di</t>
+  </si>
+  <si>
+    <t>Keterangan Pekerjaan</t>
+  </si>
+  <si>
+    <t>Tingkat Pendidikan</t>
+  </si>
+  <si>
+    <t>Keahlian 1</t>
+  </si>
+  <si>
+    <t>Level Keahlian 1</t>
+  </si>
+  <si>
+    <t>Keahlian 2</t>
+  </si>
+  <si>
+    <t>Level Keahlian 2</t>
+  </si>
+  <si>
+    <t>Minat</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Alamat Ayah</t>
+  </si>
+  <si>
+    <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>Alamat Ibu</t>
+  </si>
+  <si>
+    <t>Tinggi Badan</t>
+  </si>
+  <si>
+    <t>Berat Badan</t>
+  </si>
+  <si>
+    <t>Warna Rambut</t>
+  </si>
+  <si>
+    <t>Bentuk Bibir</t>
+  </si>
+  <si>
+    <t>Berkacamata</t>
+  </si>
+  <si>
+    <t>Bentuk Mata</t>
+  </si>
+  <si>
+    <t>Warna Mata</t>
+  </si>
+  <si>
+    <t>Hidung</t>
+  </si>
+  <si>
+    <t>Raut Muka</t>
+  </si>
+  <si>
+    <t>Telinga</t>
+  </si>
+  <si>
+    <t>Mulut</t>
+  </si>
+  <si>
+    <t>Lengan</t>
+  </si>
+  <si>
+    <t>Tangan</t>
+  </si>
+  <si>
+    <t>Kaki</t>
+  </si>
+  <si>
+    <t>Warna Kulit</t>
+  </si>
+  <si>
+    <t>Cacat Tubuh</t>
+  </si>
+  <si>
+    <t>Catatan Ciri Khusus 1</t>
+  </si>
+  <si>
+    <t>Catatan Ciri Khusus 2</t>
+  </si>
+  <si>
+    <t>Catatan Ciri Khusus 3</t>
+  </si>
+  <si>
+    <t>No. Paspor</t>
+  </si>
+  <si>
+    <t>Rumus Daktiloskopi</t>
+  </si>
+  <si>
+    <t>Nomor Daktiloskopi</t>
+  </si>
+  <si>
+    <t>Pengambilan Sidik Jari</t>
+  </si>
+  <si>
+    <t>Tanggal Pengambilan</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Wargabinaan</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
+    <t>WBP</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Jawa</t>
+  </si>
+  <si>
+    <t>Belum Menikah</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Sarijadi</t>
+  </si>
+  <si>
+    <t>Alamat Lain</t>
+  </si>
+  <si>
+    <t>Pelajar/Mahasiswa</t>
+  </si>
+  <si>
+    <t>Torche</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Tingkat Penghasilan</t>
+  </si>
+  <si>
+    <t>1.300.000 - 3.400.000</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Ahli</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>FUFU</t>
+  </si>
+  <si>
+    <t>BIBI</t>
+  </si>
+  <si>
+    <t>Bentuk Rambut</t>
+  </si>
+  <si>
+    <t>Ikal</t>
+  </si>
+  <si>
+    <t>Hitam</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Bulat</t>
+  </si>
+  <si>
+    <t>Kuning</t>
+  </si>
+  <si>
+    <t>Tidak ada</t>
+  </si>
+  <si>
+    <t>Ciri Khusus 1</t>
+  </si>
+  <si>
+    <t>Ciri Khusus 2</t>
+  </si>
+  <si>
+    <t>Ciri Khusus 3</t>
+  </si>
+  <si>
+    <t>Pxl</t>
+  </si>
+  <si>
+    <t>Polsek sumedang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-13809]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +349,13 @@
       <sz val="8"/>
       <color rgb="FF606266"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -84,6 +386,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB31C29-E0D5-4B16-A238-E32EFCB90C15}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -453,4 +761,461 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD728536-DAFD-40F7-B027-48E0BFE9896A}">
+  <dimension ref="A1:BK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3201234567890120</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="7">
+        <v>36079</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="6">
+        <v>6281345677654</v>
+      </c>
+      <c r="W2" s="3">
+        <v>40151</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>160</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>98765</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="6">
+        <v>123456</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="8">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -15,9 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>NoInduk</t>
+  </si>
+  <si>
+    <t>roregis</t>
+  </si>
+  <si>
+    <t>rgs/1</t>
+  </si>
+  <si>
+    <t>rgs/2</t>
+  </si>
+  <si>
+    <t>rgs/3</t>
+  </si>
+  <si>
+    <t>rgs/4</t>
+  </si>
+  <si>
+    <t>rgs/5</t>
+  </si>
+  <si>
+    <t>rgs/6</t>
+  </si>
+  <si>
+    <t>rgs/7</t>
   </si>
   <si>
     <t>Residivis</t>
@@ -1276,55 +1300,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="8">
         <v>501202209200006</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="8">
         <v>501202209200007</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="8">
         <v>501202209200008</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="8">
         <v>501202209200009</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="8">
         <v>501202209200010</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="8">
         <v>501202209200011</v>
       </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="8">
         <v>501202209200012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,258 +1451,258 @@
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:63">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2">
         <v>3201234567890120</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M2" s="5">
         <v>36079</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="V2" s="2">
         <v>6281345677654</v>
@@ -1663,49 +1711,49 @@
         <v>40151</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AK2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="1">
         <v>160</v>
@@ -1714,70 +1762,70 @@
         <v>60</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="BG2" s="1">
         <v>98765</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="BI2" s="2">
         <v>123456</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="BK2" s="6">
         <v>42205</v>

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A47AED-D574-46F9-B71C-564623ACBFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6379E8D-569F-4783-81F0-74ED2CE97465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="2892" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6552" yWindow="1992" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -21,30 +21,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Residivis</t>
   </si>
   <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Nama Alias 1</t>
-  </si>
-  <si>
-    <t>Nama Alias 2</t>
-  </si>
-  <si>
-    <t>Nama Alias 3</t>
-  </si>
-  <si>
-    <t>Nama Kecil 1</t>
-  </si>
-  <si>
-    <t>Nama Kecil 2</t>
-  </si>
-  <si>
-    <t>Nama Kecil 3</t>
+    <t>Nama_Lengkap</t>
+  </si>
+  <si>
+    <t>Nama_Alias1</t>
+  </si>
+  <si>
+    <t>Nama_Alias2</t>
+  </si>
+  <si>
+    <t>Nama_Alias3</t>
+  </si>
+  <si>
+    <t>Nama_Kecil1</t>
+  </si>
+  <si>
+    <t>Nama_Kecil2</t>
+  </si>
+  <si>
+    <t>Nama_Kecil3</t>
   </si>
   <si>
     <t>Kewarganegaraan</t>
@@ -53,16 +53,16 @@
     <t>NIK</t>
   </si>
   <si>
-    <t>Tempat Asal</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
+    <t>TempatAsal</t>
+  </si>
+  <si>
+    <t>Tempat_Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal_Lahir</t>
+  </si>
+  <si>
+    <t>Jenis_Kelamin</t>
   </si>
   <si>
     <t>Negara</t>
@@ -74,7 +74,7 @@
     <t>Suku</t>
   </si>
   <si>
-    <t>Status Perkawinan</t>
+    <t>Status_Perkawinan</t>
   </si>
   <si>
     <t>Provinsi</t>
@@ -83,88 +83,88 @@
     <t>Kota</t>
   </si>
   <si>
-    <t>Alamat Rumah</t>
+    <t>Alamat_Rumah</t>
   </si>
   <si>
     <t>Telepon</t>
   </si>
   <si>
-    <t>Kode POS</t>
-  </si>
-  <si>
-    <t>Alamat Lain</t>
-  </si>
-  <si>
-    <t>Jenis Pekerjaan</t>
+    <t>Kode_POS</t>
+  </si>
+  <si>
+    <t>Alamat_Lain</t>
+  </si>
+  <si>
+    <t>Jenis_Pekerjaan</t>
   </si>
   <si>
     <t>Bekerja di</t>
   </si>
   <si>
-    <t>Keterangan Pekerjaan</t>
+    <t>Keterangan_Pekerjaan</t>
   </si>
   <si>
     <t>Tingkat Penghasilan</t>
   </si>
   <si>
-    <t>Tingkat Pendidikan</t>
-  </si>
-  <si>
-    <t>Keahlian 1</t>
-  </si>
-  <si>
-    <t>Level Keahlian 1</t>
-  </si>
-  <si>
-    <t>Keahlian 2</t>
-  </si>
-  <si>
-    <t>Level Keahlian 2</t>
+    <t>Tingkat_Pendidikan</t>
+  </si>
+  <si>
+    <t>Keahlian1</t>
+  </si>
+  <si>
+    <t>Level_Keahlian1</t>
+  </si>
+  <si>
+    <t>Keahlian2</t>
+  </si>
+  <si>
+    <t>Level_Keahlian2</t>
   </si>
   <si>
     <t>Minat</t>
   </si>
   <si>
-    <t>Nama Ayah</t>
-  </si>
-  <si>
-    <t>Alamat Ayah</t>
-  </si>
-  <si>
-    <t>Nama Ibu</t>
-  </si>
-  <si>
-    <t>Alamat Ibu</t>
-  </si>
-  <si>
-    <t>Tinggi Badan</t>
-  </si>
-  <si>
-    <t>Berat Badan</t>
-  </si>
-  <si>
-    <t>Bentuk Rambut</t>
-  </si>
-  <si>
-    <t>Warna Rambut</t>
-  </si>
-  <si>
-    <t>Bentuk Bibir</t>
+    <t>Nama_Ayah</t>
+  </si>
+  <si>
+    <t>Alamat_Ayah</t>
+  </si>
+  <si>
+    <t>Nama_Ibu</t>
+  </si>
+  <si>
+    <t>Alamat_Ibu</t>
+  </si>
+  <si>
+    <t>Tinggi_Badan</t>
+  </si>
+  <si>
+    <t>Berat_Badan</t>
+  </si>
+  <si>
+    <t>Bentuk_Rambut</t>
+  </si>
+  <si>
+    <t>Warna_Rambut</t>
+  </si>
+  <si>
+    <t>Bentuk_Bibir</t>
   </si>
   <si>
     <t>Berkacamata</t>
   </si>
   <si>
-    <t>Bentuk Mata</t>
-  </si>
-  <si>
-    <t>Warna Mata</t>
+    <t>Bentuk_Mata</t>
+  </si>
+  <si>
+    <t>Warna_Mata</t>
   </si>
   <si>
     <t>Hidung</t>
   </si>
   <si>
-    <t>Raut Muka</t>
+    <t>Raut_Muka</t>
   </si>
   <si>
     <t>Telinga</t>
@@ -182,34 +182,34 @@
     <t>Kaki</t>
   </si>
   <si>
-    <t>Warna Kulit</t>
-  </si>
-  <si>
-    <t>Cacat Tubuh</t>
-  </si>
-  <si>
-    <t>Catatan Ciri Khusus 1</t>
-  </si>
-  <si>
-    <t>Catatan Ciri Khusus 2</t>
-  </si>
-  <si>
-    <t>Catatan Ciri Khusus 3</t>
-  </si>
-  <si>
-    <t>No. Paspor</t>
-  </si>
-  <si>
-    <t>Rumus Daktiloskopi</t>
-  </si>
-  <si>
-    <t>Nomor Daktiloskopi</t>
-  </si>
-  <si>
-    <t>Pengambilan Sidik Jari</t>
-  </si>
-  <si>
-    <t>Tanggal Pengambilan</t>
+    <t>Warna_Kulit</t>
+  </si>
+  <si>
+    <t>Cacat_Tubuh</t>
+  </si>
+  <si>
+    <t>CatatanCiriKhusus1</t>
+  </si>
+  <si>
+    <t>CatatanCiriKhusus2</t>
+  </si>
+  <si>
+    <t>CatatanCiriKhusus3</t>
+  </si>
+  <si>
+    <t>No.Paspor</t>
+  </si>
+  <si>
+    <t>RumusDaktiloskopi</t>
+  </si>
+  <si>
+    <t>NomorDaktiloskopi</t>
+  </si>
+  <si>
+    <t>PengambilanSidikJari</t>
+  </si>
+  <si>
+    <t>TanggalPengambilan</t>
   </si>
   <si>
     <t>Tidak</t>
@@ -239,9 +239,6 @@
     <t>Jawa</t>
   </si>
   <si>
-    <t>Belum Menikah</t>
-  </si>
-  <si>
     <t>Jawa Barat</t>
   </si>
   <si>
@@ -315,13 +312,32 @@
   </si>
   <si>
     <t>NoInduk</t>
+  </si>
+  <si>
+    <t>13/06/1990</t>
+  </si>
+  <si>
+    <t>Biasa</t>
+  </si>
+  <si>
+    <t>Lebar</t>
+  </si>
+  <si>
+    <t>Panjang</t>
+  </si>
+  <si>
+    <t>Belum Kawin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-13809]dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,9 +358,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF606266"/>
       <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -356,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -371,46 +399,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,46 +780,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>97</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>501202209200006</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <v>501202209200007</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>501202209200008</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="15">
         <v>501202209200009</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="15">
         <v>501202209200010</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="15">
         <v>501202209200011</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="15">
         <v>501202209200012</v>
       </c>
     </row>
@@ -778,65 +835,70 @@
   </sheetPr>
   <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK2" sqref="BK2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.88671875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -846,28 +908,28 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -876,19 +938,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -897,22 +959,22 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
@@ -927,307 +989,309 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:63" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="14">
         <v>3201234567890120</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="13">
-        <v>36079</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="14">
+        <v>6281345677654</v>
+      </c>
+      <c r="W2" s="14">
+        <v>40151</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="6">
-        <v>6281345677654</v>
-      </c>
-      <c r="W2" s="12">
-        <v>40151</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" s="17">
+        <v>160</v>
+      </c>
+      <c r="AN2" s="17">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>160</v>
-      </c>
-      <c r="AN2" s="7">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AW2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" s="14">
+        <v>98765</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BG2" s="7">
-        <v>98765</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BI2" s="14">
+        <v>123456</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="6">
-        <v>123456</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK2" s="8">
-        <v>42205</v>
+      <c r="BK2" s="9">
+        <v>36809</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E51AA4-6746-4E84-914B-412E12243A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901900DD-69C7-4BA7-9088-8695020C7BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>Residivis</t>
   </si>
@@ -326,7 +326,25 @@
     <t>Polsek sumedang</t>
   </si>
   <si>
+    <t>12/04/2000'</t>
+  </si>
+  <si>
+    <t>Baca Qur'an</t>
+  </si>
+  <si>
     <t>NoInduk</t>
+  </si>
+  <si>
+    <t>MPTM</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Baca Latin</t>
+  </si>
+  <si>
+    <t>Bandung bondowoso</t>
   </si>
 </sst>
 </file>
@@ -346,7 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -358,7 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -428,40 +446,42 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,10 +854,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,8 +870,8 @@
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.88671875" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -862,7 +882,7 @@
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -877,8 +897,8 @@
     <col min="36" max="36" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -895,14 +915,14 @@
     <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
     <col min="56" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,23 +1097,32 @@
       <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1164,7 +1193,7 @@
         <v>40151</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>76</v>
@@ -1268,30 +1297,40 @@
       <c r="BF2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BG2" s="6">
+      <c r="BG2" s="7">
         <v>98765</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BI2" s="6">
+      <c r="BI2" s="7">
         <v>123456</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BK2" s="11">
-        <v>36809</v>
+      <c r="BK2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="L6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760"/>
+    <workbookView windowWidth="28800" windowHeight="13760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -1199,6 +1199,9 @@
     <t>Ananda</t>
   </si>
   <si>
+    <t xml:space="preserve"> Barang biasa</t>
+  </si>
+  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -1220,7 +1223,7 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>501202208240002</t>
+    <t>145202209070001</t>
   </si>
   <si>
     <t>test barang 1 deskripsi</t>
@@ -1229,7 +1232,7 @@
     <t>NamaBarang 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Barang Berharga</t>
+    <t>Barang berharga</t>
   </si>
   <si>
     <t>Contoh Satuan 1</t>
@@ -1242,9 +1245,6 @@
   </si>
   <si>
     <t>NamaBarang 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barang Biasa</t>
   </si>
   <si>
     <t>Contoh Satuan 2</t>
@@ -2529,7 +2529,7 @@
   </sheetPr>
   <dimension ref="A1:BT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+    <sheetView topLeftCell="AW1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -31481,13 +31481,13 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.4453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5625" customWidth="1"/>
     <col min="2" max="2" width="26.9453125" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.2734375" customWidth="1"/>
@@ -31498,51 +31498,51 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2" t="s">
         <v>386</v>
@@ -31550,19 +31550,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>390</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760"/>
+    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="559">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1684,6 +1684,9 @@
   </si>
   <si>
     <t>TanggalMeninggal</t>
+  </si>
+  <si>
+    <t>eko cah</t>
   </si>
   <si>
     <t>SRT/MEN/11232</t>
@@ -3008,8 +3011,8 @@
   </sheetPr>
   <dimension ref="A1:BT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -32990,7 +32993,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -33030,17 +33033,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>145202210080002</v>
+      <c r="A2" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E2" s="2">
         <v>42872</v>
@@ -33049,7 +33052,7 @@
         <v>42872</v>
       </c>
       <c r="G2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="566">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1686,6 +1686,15 @@
     <t>TanggalMeninggal</t>
   </si>
   <si>
+    <t>NamaDokumen</t>
+  </si>
+  <si>
+    <t>DirFile</t>
+  </si>
+  <si>
+    <t>KeteranganF</t>
+  </si>
+  <si>
     <t>eko cah</t>
   </si>
   <si>
@@ -1698,7 +1707,19 @@
     <t>SAKIT</t>
   </si>
   <si>
+    <t>17/05/2017'</t>
+  </si>
+  <si>
     <t>SAKIT KERAS</t>
+  </si>
+  <si>
+    <t>dok meninggal dunia</t>
+  </si>
+  <si>
+    <t>/Users/will/Downloads/pdf/terminologi.pdf</t>
+  </si>
+  <si>
+    <t>surat keterangan</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1729,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1790,92 +1811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,7 +1827,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,8 +1887,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,9 +1940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1971,7 +1992,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +2040,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,79 +2148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,73 +2166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,17 +2294,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2299,15 +2325,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2331,7 +2348,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2353,17 +2385,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2373,142 +2394,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3011,7 +3032,7 @@
   </sheetPr>
   <dimension ref="A1:BT8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3759,7 +3780,7 @@
   </sheetPr>
   <dimension ref="A1:CH8781"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BS1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -32991,25 +33012,26 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="19.390625" customWidth="1"/>
-    <col min="3" max="3" width="17.3125" customWidth="1"/>
+    <col min="1" max="1" width="29.6875" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="22.6484375" customWidth="1"/>
     <col min="5" max="5" width="21.34375" customWidth="1"/>
     <col min="6" max="6" width="24.09375" customWidth="1"/>
     <col min="7" max="7" width="18.359375" customWidth="1"/>
-    <col min="8" max="8" width="11.984375" customWidth="1"/>
+    <col min="8" max="8" width="19.921875" customWidth="1"/>
+    <col min="9" max="9" width="35.421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33031,28 +33053,46 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42872</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42872</v>
+        <v>560</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="G2" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="H2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J2" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Banhum" sheetId="7" r:id="rId7"/>
     <sheet name="sursidang" sheetId="8" r:id="rId8"/>
     <sheet name="MeninggalDunia" sheetId="9" r:id="rId9"/>
+    <sheet name="TahananRumah" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="581">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1720,6 +1721,51 @@
   </si>
   <si>
     <t>surat keterangan</t>
+  </si>
+  <si>
+    <t>StatusTahananLuar</t>
+  </si>
+  <si>
+    <t>NomorSurat</t>
+  </si>
+  <si>
+    <t>Instansi</t>
+  </si>
+  <si>
+    <t>TanggalMulai</t>
+  </si>
+  <si>
+    <t>UraianTambahan</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Pembantaran</t>
+  </si>
+  <si>
+    <t>SRT/0021</t>
+  </si>
+  <si>
+    <t>KETERANGAN URAIAN TAMBAHAN</t>
+  </si>
+  <si>
+    <t>WILDAN KW</t>
+  </si>
+  <si>
+    <t>0228876892</t>
+  </si>
+  <si>
+    <t>Komplek Torche Indonesia</t>
+  </si>
+  <si>
+    <t>tahanan rumah</t>
+  </si>
+  <si>
+    <t>//////users/will/Downloads/pdf/terminologi.pdf</t>
+  </si>
+  <si>
+    <t>test keterangan</t>
   </si>
 </sst>
 </file>
@@ -1727,10 +1773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1741,13 +1787,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1803,9 +1849,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1813,6 +1859,74 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1827,30 +1941,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1864,31 +1962,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1903,45 +1985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,7 +2038,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,43 +2176,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,127 +2212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,26 +2340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2329,6 +2355,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2340,15 +2375,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,6 +2411,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2394,158 +2440,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2575,7 +2621,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2584,7 +2630,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2596,7 +2642,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -2609,49 +2655,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2660,7 +2706,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,7 +2715,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2682,6 +2728,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3329,7 +3376,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:72">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>145202210080002</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3541,7 +3588,7 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:72">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>145202210080002</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3769,6 +3816,116 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.0625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="21.09375" customWidth="1"/>
+    <col min="4" max="4" width="16.921875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="15.4921875" customWidth="1"/>
+    <col min="7" max="7" width="16.2734375" customWidth="1"/>
+    <col min="10" max="10" width="22.390625" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L1" t="s">
+        <v>555</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L2" t="s">
+        <v>579</v>
+      </c>
+      <c r="M2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -33014,8 +33171,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -33064,7 +33221,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>557</v>
       </c>
       <c r="B2" t="s">
@@ -33076,10 +33233,10 @@
       <c r="D2" t="s">
         <v>560</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>561</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258945E4-1FD1-4E8F-AA78-F170DB65D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDE0BD-4BD9-4D50-AC47-82DF562CA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="18570" windowHeight="10005" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="24075" windowHeight="8520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -3335,8 +3335,8 @@
   </sheetPr>
   <dimension ref="A1:CH8781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CH12"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,28 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDE0BD-4BD9-4D50-AC47-82DF562CA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514BC26-572D-4977-9782-848CBF68F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="24075" windowHeight="8520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
-    <sheet name="Identitas" sheetId="2" r:id="rId2"/>
-    <sheet name="PenerimaanTahanan" sheetId="3" r:id="rId3"/>
-    <sheet name="PenolakanTahanan" sheetId="4" r:id="rId4"/>
-    <sheet name="BarangBawaan" sheetId="5" r:id="rId5"/>
-    <sheet name="Catatan" sheetId="6" r:id="rId6"/>
-    <sheet name="Banhum" sheetId="7" r:id="rId7"/>
-    <sheet name="sursidang" sheetId="8" r:id="rId8"/>
-    <sheet name="MeninggalDunia" sheetId="9" r:id="rId9"/>
-    <sheet name="TahananRumah" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="Identitas" sheetId="2" r:id="rId3"/>
+    <sheet name="PenerimaanTahanan" sheetId="3" r:id="rId4"/>
+    <sheet name="PenolakanTahanan" sheetId="4" r:id="rId5"/>
+    <sheet name="BarangBawaan" sheetId="5" r:id="rId6"/>
+    <sheet name="Catatan" sheetId="6" r:id="rId7"/>
+    <sheet name="Banhum" sheetId="7" r:id="rId8"/>
+    <sheet name="sursidang" sheetId="8" r:id="rId9"/>
+    <sheet name="MeninggalDunia" sheetId="9" r:id="rId10"/>
+    <sheet name="TahananRumah" sheetId="10" r:id="rId11"/>
+    <sheet name="PerpanjanganTahanan" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="638">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1790,18 +1802,181 @@
   </si>
   <si>
     <t>Tulipwaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noreg </t>
+  </si>
+  <si>
+    <t>Nosrt</t>
+  </si>
+  <si>
+    <t>tglsrt</t>
+  </si>
+  <si>
+    <t>Jperpnjngn</t>
+  </si>
+  <si>
+    <t>tglmulaiperpanjngn</t>
+  </si>
+  <si>
+    <t>jmlhdoc</t>
+  </si>
+  <si>
+    <t>dokumen</t>
+  </si>
+  <si>
+    <t>dokumen1</t>
+  </si>
+  <si>
+    <t>dokumen2</t>
+  </si>
+  <si>
+    <t>dokumen3</t>
+  </si>
+  <si>
+    <t>Keterangan1</t>
+  </si>
+  <si>
+    <t>Keterangan2</t>
+  </si>
+  <si>
+    <t>Keterangan3</t>
+  </si>
+  <si>
+    <t>Nosrt001</t>
+  </si>
+  <si>
+    <t>Nosrt002</t>
+  </si>
+  <si>
+    <t>Nosrt003</t>
+  </si>
+  <si>
+    <t>Nosrt004</t>
+  </si>
+  <si>
+    <t>Nosrt005</t>
+  </si>
+  <si>
+    <t>Nosrt006</t>
+  </si>
+  <si>
+    <t>Nosrt007</t>
+  </si>
+  <si>
+    <t>Nosrt008</t>
+  </si>
+  <si>
+    <t>05/05/2000</t>
+  </si>
+  <si>
+    <t>05/05/2001</t>
+  </si>
+  <si>
+    <t>05/05/2002</t>
+  </si>
+  <si>
+    <t>05/05/2003</t>
+  </si>
+  <si>
+    <t>05/05/2004</t>
+  </si>
+  <si>
+    <t>05/05/2005</t>
+  </si>
+  <si>
+    <t>05/05/2006</t>
+  </si>
+  <si>
+    <t>05/05/2007</t>
+  </si>
+  <si>
+    <t>Dokumen001</t>
+  </si>
+  <si>
+    <t>Dokumen002</t>
+  </si>
+  <si>
+    <t>Dokumen003</t>
+  </si>
+  <si>
+    <t>Nama Dokumen</t>
+  </si>
+  <si>
+    <t>Keterangan Dokumen 001</t>
+  </si>
+  <si>
+    <t>Keterangan Dokumen 002</t>
+  </si>
+  <si>
+    <t>Keterangan Dokumen 003</t>
+  </si>
+  <si>
+    <t>Keterangan Dokumen</t>
+  </si>
+  <si>
+    <t>04/04/2001</t>
+  </si>
+  <si>
+    <t>04/04/2002</t>
+  </si>
+  <si>
+    <t>04/04/2003</t>
+  </si>
+  <si>
+    <t>04/04/2004</t>
+  </si>
+  <si>
+    <t>04/04/2005</t>
+  </si>
+  <si>
+    <t>04/04/2006</t>
+  </si>
+  <si>
+    <t>04/04/2008</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan Kepolisian</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan Kejaksaan</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan Pengadilan Negeri</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan Pengadilan Tinggi</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan MA</t>
+  </si>
+  <si>
+    <t>Perpanjangan Sandera</t>
+  </si>
+  <si>
+    <t>Perpanjangan Tahanan Militer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="\'dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1866,8 +2041,14 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1907,6 +2088,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,148 +2218,178 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3221,6 +3438,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3328,14 +3635,405 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29EFAA2-10BF-4038-BE3E-3FC9DFB483A3}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="50"/>
+    <col min="3" max="3" width="8.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="24" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="51" customFormat="1">
+      <c r="A1" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="G3" s="50">
+        <v>2</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="50">
+        <v>3</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="G5" s="50">
+        <v>4</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>613</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="50">
+        <v>2</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>637</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="50">
+        <v>3</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="G9" s="50">
+        <v>4</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7712523E-7431-4CAA-A240-34C5DD7C838D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:CH8781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
@@ -32361,7 +33059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -32529,7 +33227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -32697,7 +33395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -32801,7 +33499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -32881,7 +33579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -33295,7 +33993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -33714,94 +34412,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" t="s">
-        <v>556</v>
-      </c>
-      <c r="I2" t="s">
-        <v>557</v>
-      </c>
-      <c r="J2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514BC26-572D-4977-9782-848CBF68F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F0F1E-585A-4BEF-8933-9C2684B5EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="2370" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="685">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1955,6 +1955,147 @@
   </si>
   <si>
     <t>Perpanjangan Tahanan Militer</t>
+  </si>
+  <si>
+    <t>22/05/2016</t>
+  </si>
+  <si>
+    <t>SRT/001/B3</t>
+  </si>
+  <si>
+    <t>13/05/2016</t>
+  </si>
+  <si>
+    <t>23/05/2016</t>
+  </si>
+  <si>
+    <t>22/05/1999</t>
+  </si>
+  <si>
+    <t>17/05/2016</t>
+  </si>
+  <si>
+    <t>22/05/2017</t>
+  </si>
+  <si>
+    <t>SRT/001/B4</t>
+  </si>
+  <si>
+    <t>13/05/2017</t>
+  </si>
+  <si>
+    <t>23/05/2017</t>
+  </si>
+  <si>
+    <t>22/05/2000</t>
+  </si>
+  <si>
+    <t>17/05/2017</t>
+  </si>
+  <si>
+    <t>22/05/2018</t>
+  </si>
+  <si>
+    <t>SRT/001/B5</t>
+  </si>
+  <si>
+    <t>13/05/2018</t>
+  </si>
+  <si>
+    <t>23/05/2018</t>
+  </si>
+  <si>
+    <t>22/05/2001</t>
+  </si>
+  <si>
+    <t>17/05/2018</t>
+  </si>
+  <si>
+    <t>22/05/2019</t>
+  </si>
+  <si>
+    <t>SRT/001/B6</t>
+  </si>
+  <si>
+    <t>13/05/2019</t>
+  </si>
+  <si>
+    <t>23/05/2019</t>
+  </si>
+  <si>
+    <t>22/05/2002</t>
+  </si>
+  <si>
+    <t>17/05/2019</t>
+  </si>
+  <si>
+    <t>22/05/2020</t>
+  </si>
+  <si>
+    <t>SRT/001/B7</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>23/05/2020</t>
+  </si>
+  <si>
+    <t>22/05/2003</t>
+  </si>
+  <si>
+    <t>17/05/2020</t>
+  </si>
+  <si>
+    <t>22/05/2021</t>
+  </si>
+  <si>
+    <t>SRT/001/B8</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>23/05/2021</t>
+  </si>
+  <si>
+    <t>22/05/2004</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
+  </si>
+  <si>
+    <t>22/05/2022</t>
+  </si>
+  <si>
+    <t>SRT/001/B9</t>
+  </si>
+  <si>
+    <t>13/05/2022</t>
+  </si>
+  <si>
+    <t>23/05/2022</t>
+  </si>
+  <si>
+    <t>22/05/2005</t>
+  </si>
+  <si>
+    <t>17/05/2022</t>
+  </si>
+  <si>
+    <t>Cahyono</t>
+  </si>
+  <si>
+    <t>RGS/BI/002</t>
+  </si>
+  <si>
+    <t>RGS/BI/003</t>
+  </si>
+  <si>
+    <t>RGS/BI/004</t>
+  </si>
+  <si>
+    <t>RGS/BI/005</t>
   </si>
 </sst>
 </file>
@@ -1962,14 +2103,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="\'dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="\'dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2024,12 +2172,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFDCDDDE"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF303133"/>
       <name val="Roboto"/>
@@ -2043,6 +2185,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2220,176 +2368,168 @@
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2695,88 +2835,84 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BT8"/>
+  <dimension ref="A1:BT13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" customWidth="1"/>
-    <col min="20" max="20" width="36.85546875" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" customWidth="1"/>
-    <col min="22" max="22" width="33.42578125" customWidth="1"/>
-    <col min="23" max="23" width="31.140625" customWidth="1"/>
-    <col min="24" max="24" width="23" customWidth="1"/>
-    <col min="25" max="25" width="29.7109375" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" customWidth="1"/>
-    <col min="27" max="27" width="34.7109375" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" customWidth="1"/>
-    <col min="29" max="29" width="41.42578125" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="30.7109375" customWidth="1"/>
-    <col min="32" max="32" width="27.7109375" customWidth="1"/>
-    <col min="33" max="33" width="28" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" customWidth="1"/>
-    <col min="37" max="37" width="23.28515625" customWidth="1"/>
-    <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="39" width="22.5703125" customWidth="1"/>
-    <col min="40" max="40" width="20.42578125" customWidth="1"/>
-    <col min="41" max="41" width="23.7109375" customWidth="1"/>
-    <col min="42" max="42" width="30" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="20.7109375" customWidth="1"/>
-    <col min="45" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="21.85546875" customWidth="1"/>
-    <col min="47" max="47" width="28" customWidth="1"/>
-    <col min="48" max="48" width="24.85546875" customWidth="1"/>
-    <col min="49" max="49" width="25.85546875" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" customWidth="1"/>
-    <col min="51" max="52" width="27.85546875" customWidth="1"/>
-    <col min="53" max="53" width="29" customWidth="1"/>
-    <col min="54" max="54" width="24.85546875" customWidth="1"/>
-    <col min="55" max="55" width="34.85546875" style="20" customWidth="1"/>
-    <col min="56" max="56" width="20.42578125" style="20" customWidth="1"/>
-    <col min="57" max="57" width="38" style="20" customWidth="1"/>
-    <col min="58" max="58" width="42.5703125" customWidth="1"/>
-    <col min="59" max="59" width="26.5703125" style="20" customWidth="1"/>
-    <col min="60" max="60" width="23.7109375" style="20" customWidth="1"/>
-    <col min="61" max="61" width="22.5703125" style="20" customWidth="1"/>
-    <col min="62" max="62" width="28.85546875" style="20" customWidth="1"/>
-    <col min="63" max="63" width="16.5703125" style="20" customWidth="1"/>
-    <col min="64" max="64" width="29.5703125" style="20" customWidth="1"/>
-    <col min="65" max="65" width="28.7109375" style="20" customWidth="1"/>
-    <col min="66" max="66" width="32.5703125" style="20" customWidth="1"/>
-    <col min="67" max="67" width="14" style="20" customWidth="1"/>
-    <col min="68" max="68" width="30.85546875" style="20" customWidth="1"/>
-    <col min="69" max="69" width="25.85546875" style="20" customWidth="1"/>
-    <col min="70" max="70" width="26.7109375" style="20" customWidth="1"/>
-    <col min="71" max="71" width="40.85546875" customWidth="1"/>
-    <col min="72" max="72" width="12" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16" style="20" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="19.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -2824,10 +2960,10 @@
       <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="40" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
@@ -2938,52 +3074,52 @@
       <c r="BB1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="46" t="s">
+      <c r="BC1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="46" t="s">
+      <c r="BD1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="46" t="s">
+      <c r="BE1" s="43" t="s">
         <v>56</v>
       </c>
       <c r="BF1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="46" t="s">
+      <c r="BG1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="46" t="s">
+      <c r="BH1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="47" t="s">
+      <c r="BI1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="46" t="s">
+      <c r="BJ1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="46" t="s">
+      <c r="BK1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="46" t="s">
+      <c r="BL1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="47" t="s">
+      <c r="BM1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="46" t="s">
+      <c r="BN1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="46" t="s">
+      <c r="BO1" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="46" t="s">
+      <c r="BP1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="47" t="s">
+      <c r="BQ1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="46" t="s">
+      <c r="BR1" s="43" t="s">
         <v>69</v>
       </c>
       <c r="BS1" t="s">
@@ -2994,7 +3130,7 @@
       </c>
     </row>
     <row r="2" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="55">
         <v>145202210080002</v>
       </c>
       <c r="B2" t="s">
@@ -3081,7 +3217,7 @@
       <c r="AC2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="44"/>
+      <c r="AD2" s="41"/>
       <c r="AE2" s="12" t="s">
         <v>89</v>
       </c>
@@ -3094,11 +3230,11 @@
       <c r="AH2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="44"/>
+      <c r="AI2" s="41"/>
       <c r="AJ2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="45" t="s">
+      <c r="AK2" s="42" t="s">
         <v>94</v>
       </c>
       <c r="AL2" t="s">
@@ -3113,7 +3249,7 @@
       <c r="AO2" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="44"/>
+      <c r="AP2" s="41"/>
       <c r="AQ2" s="12" t="s">
         <v>91</v>
       </c>
@@ -3206,7 +3342,7 @@
       </c>
     </row>
     <row r="3" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A3" s="2">
+      <c r="A3" s="55">
         <v>145202210080002</v>
       </c>
       <c r="B3" t="s">
@@ -3293,7 +3429,7 @@
       <c r="AC3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="44"/>
+      <c r="AD3" s="41"/>
       <c r="AE3" s="12" t="s">
         <v>89</v>
       </c>
@@ -3306,11 +3442,11 @@
       <c r="AH3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI3" s="44"/>
+      <c r="AI3" s="41"/>
       <c r="AJ3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="45" t="s">
+      <c r="AK3" s="42" t="s">
         <v>121</v>
       </c>
       <c r="AL3" t="s">
@@ -3325,7 +3461,7 @@
       <c r="AO3" t="s">
         <v>97</v>
       </c>
-      <c r="AP3" s="44"/>
+      <c r="AP3" s="41"/>
       <c r="AQ3" s="12" t="s">
         <v>119</v>
       </c>
@@ -3418,22 +3554,1920 @@
       </c>
     </row>
     <row r="4" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="55"/>
     </row>
     <row r="5" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="55">
+        <v>162202210180001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK5" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC5" s="19">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="19">
+        <v>5</v>
+      </c>
+      <c r="BE5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG5" s="19">
+        <v>5000000</v>
+      </c>
+      <c r="BH5" s="19">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="19">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="19">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="BL5" s="19">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="19">
+        <v>3</v>
+      </c>
+      <c r="BN5" s="19">
+        <v>3</v>
+      </c>
+      <c r="BO5" s="19">
+        <v>2000</v>
+      </c>
+      <c r="BP5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="55">
+        <v>162202210180002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK6" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC6" s="19">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="19">
+        <v>6</v>
+      </c>
+      <c r="BE6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG6" s="19">
+        <v>5000001</v>
+      </c>
+      <c r="BH6" s="19">
+        <v>6</v>
+      </c>
+      <c r="BI6" s="19">
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="19">
+        <v>6</v>
+      </c>
+      <c r="BK6" s="19">
+        <v>2000001</v>
+      </c>
+      <c r="BL6" s="19">
+        <v>4</v>
+      </c>
+      <c r="BM6" s="19">
+        <v>4</v>
+      </c>
+      <c r="BN6" s="19">
+        <v>4</v>
+      </c>
+      <c r="BO6" s="19">
+        <v>2001</v>
+      </c>
+      <c r="BP6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="19">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="57">
+        <v>162202210180003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="S7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="U7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC7" s="19">
+        <v>7</v>
+      </c>
+      <c r="BD7" s="19">
+        <v>7</v>
+      </c>
+      <c r="BE7" s="19">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG7" s="19">
+        <v>5000002</v>
+      </c>
+      <c r="BH7" s="19">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="19">
+        <v>7</v>
+      </c>
+      <c r="BJ7" s="19">
+        <v>7</v>
+      </c>
+      <c r="BK7" s="19">
+        <v>2000002</v>
+      </c>
+      <c r="BL7" s="19">
+        <v>5</v>
+      </c>
+      <c r="BM7" s="19">
+        <v>5</v>
+      </c>
+      <c r="BN7" s="19">
+        <v>5</v>
+      </c>
+      <c r="BO7" s="19">
+        <v>2002</v>
+      </c>
+      <c r="BP7" s="19">
+        <v>3</v>
+      </c>
+      <c r="BQ7" s="19">
+        <v>3</v>
+      </c>
+      <c r="BR7" s="19">
+        <v>3</v>
+      </c>
+      <c r="BS7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="55">
+        <v>162202210180004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="U8" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC8" s="19">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="19">
+        <v>8</v>
+      </c>
+      <c r="BE8" s="19">
+        <v>4</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG8" s="19">
+        <v>5000003</v>
+      </c>
+      <c r="BH8" s="19">
+        <v>8</v>
+      </c>
+      <c r="BI8" s="19">
+        <v>8</v>
+      </c>
+      <c r="BJ8" s="19">
+        <v>8</v>
+      </c>
+      <c r="BK8" s="19">
+        <v>2000003</v>
+      </c>
+      <c r="BL8" s="19">
+        <v>6</v>
+      </c>
+      <c r="BM8" s="19">
+        <v>6</v>
+      </c>
+      <c r="BN8" s="19">
+        <v>6</v>
+      </c>
+      <c r="BO8" s="19">
+        <v>2003</v>
+      </c>
+      <c r="BP8" s="19">
+        <v>4</v>
+      </c>
+      <c r="BQ8" s="19">
+        <v>4</v>
+      </c>
+      <c r="BR8" s="19">
+        <v>4</v>
+      </c>
+      <c r="BS8" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72">
+      <c r="A9" s="56">
+        <v>162202210180005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D9" t="s">
+        <v>651</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="S9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="U9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ9" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC9" s="19">
+        <v>9</v>
+      </c>
+      <c r="BD9" s="19">
+        <v>9</v>
+      </c>
+      <c r="BE9" s="19">
+        <v>5</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG9" s="19">
+        <v>5000004</v>
+      </c>
+      <c r="BH9" s="19">
+        <v>9</v>
+      </c>
+      <c r="BI9" s="19">
+        <v>9</v>
+      </c>
+      <c r="BJ9" s="19">
+        <v>9</v>
+      </c>
+      <c r="BK9" s="19">
+        <v>2000004</v>
+      </c>
+      <c r="BL9" s="19">
+        <v>7</v>
+      </c>
+      <c r="BM9" s="19">
+        <v>7</v>
+      </c>
+      <c r="BN9" s="19">
+        <v>7</v>
+      </c>
+      <c r="BO9" s="19">
+        <v>2004</v>
+      </c>
+      <c r="BP9" s="19">
+        <v>5</v>
+      </c>
+      <c r="BQ9" s="19">
+        <v>5</v>
+      </c>
+      <c r="BR9" s="19">
+        <v>5</v>
+      </c>
+      <c r="BS9" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72">
+      <c r="A10" s="56">
+        <v>162202210180006</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" t="s">
+        <v>657</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="M10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="S10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="U10" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK10" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC10" s="19">
+        <v>10</v>
+      </c>
+      <c r="BD10" s="19">
+        <v>10</v>
+      </c>
+      <c r="BE10" s="19">
+        <v>6</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG10" s="19">
+        <v>5000005</v>
+      </c>
+      <c r="BH10" s="19">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="19">
+        <v>10</v>
+      </c>
+      <c r="BJ10" s="19">
+        <v>10</v>
+      </c>
+      <c r="BK10" s="19">
+        <v>2000005</v>
+      </c>
+      <c r="BL10" s="19">
+        <v>8</v>
+      </c>
+      <c r="BM10" s="19">
+        <v>8</v>
+      </c>
+      <c r="BN10" s="19">
+        <v>8</v>
+      </c>
+      <c r="BO10" s="19">
+        <v>2005</v>
+      </c>
+      <c r="BP10" s="19">
+        <v>6</v>
+      </c>
+      <c r="BQ10" s="19">
+        <v>6</v>
+      </c>
+      <c r="BR10" s="19">
+        <v>6</v>
+      </c>
+      <c r="BS10" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72">
+      <c r="A11" s="56">
+        <v>162202210190001</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="D11" t="s">
+        <v>663</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="S11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="U11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC11" s="19">
+        <v>11</v>
+      </c>
+      <c r="BD11" s="19">
+        <v>11</v>
+      </c>
+      <c r="BE11" s="19">
+        <v>7</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG11" s="19">
+        <v>5000006</v>
+      </c>
+      <c r="BH11" s="19">
+        <v>11</v>
+      </c>
+      <c r="BI11" s="19">
+        <v>11</v>
+      </c>
+      <c r="BJ11" s="19">
+        <v>11</v>
+      </c>
+      <c r="BK11" s="19">
+        <v>2000006</v>
+      </c>
+      <c r="BL11" s="19">
+        <v>9</v>
+      </c>
+      <c r="BM11" s="19">
+        <v>9</v>
+      </c>
+      <c r="BN11" s="19">
+        <v>9</v>
+      </c>
+      <c r="BO11" s="19">
+        <v>2006</v>
+      </c>
+      <c r="BP11" s="19">
+        <v>7</v>
+      </c>
+      <c r="BQ11" s="19">
+        <v>7</v>
+      </c>
+      <c r="BR11" s="19">
+        <v>7</v>
+      </c>
+      <c r="BS11" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72">
+      <c r="A12" s="56">
+        <v>162202210190002</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="S12" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="U12" t="s">
+        <v>88</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ12" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC12" s="19">
+        <v>12</v>
+      </c>
+      <c r="BD12" s="19">
+        <v>12</v>
+      </c>
+      <c r="BE12" s="19">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG12" s="19">
+        <v>5000007</v>
+      </c>
+      <c r="BH12" s="19">
+        <v>12</v>
+      </c>
+      <c r="BI12" s="19">
+        <v>12</v>
+      </c>
+      <c r="BJ12" s="19">
+        <v>12</v>
+      </c>
+      <c r="BK12" s="19">
+        <v>2000007</v>
+      </c>
+      <c r="BL12" s="19">
+        <v>10</v>
+      </c>
+      <c r="BM12" s="19">
+        <v>10</v>
+      </c>
+      <c r="BN12" s="19">
+        <v>10</v>
+      </c>
+      <c r="BO12" s="19">
+        <v>2007</v>
+      </c>
+      <c r="BP12" s="19">
+        <v>8</v>
+      </c>
+      <c r="BQ12" s="19">
+        <v>8</v>
+      </c>
+      <c r="BR12" s="19">
+        <v>8</v>
+      </c>
+      <c r="BS12" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72">
+      <c r="A13" s="56">
+        <v>162202210190003</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="S13" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="U13" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK13" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ13" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC13" s="19">
+        <v>13</v>
+      </c>
+      <c r="BD13" s="19">
+        <v>13</v>
+      </c>
+      <c r="BE13" s="19">
+        <v>9</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG13" s="19">
+        <v>5000008</v>
+      </c>
+      <c r="BH13" s="19">
+        <v>13</v>
+      </c>
+      <c r="BI13" s="19">
+        <v>13</v>
+      </c>
+      <c r="BJ13" s="19">
+        <v>13</v>
+      </c>
+      <c r="BK13" s="19">
+        <v>2000008</v>
+      </c>
+      <c r="BL13" s="19">
+        <v>11</v>
+      </c>
+      <c r="BM13" s="19">
+        <v>11</v>
+      </c>
+      <c r="BN13" s="19">
+        <v>11</v>
+      </c>
+      <c r="BO13" s="19">
+        <v>2008</v>
+      </c>
+      <c r="BP13" s="19">
+        <v>9</v>
+      </c>
+      <c r="BQ13" s="19">
+        <v>9</v>
+      </c>
+      <c r="BR13" s="19">
+        <v>9</v>
+      </c>
+      <c r="BS13" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3614,7 +5648,7 @@
       <c r="H2" t="s">
         <v>568</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>569</v>
       </c>
       <c r="J2" t="s">
@@ -3639,371 +5673,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29EFAA2-10BF-4038-BE3E-3FC9DFB483A3}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="50"/>
-    <col min="3" max="3" width="8.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="24" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="51" customFormat="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:15" s="47" customFormat="1">
+      <c r="A1" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>592</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="46" t="s">
         <v>597</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>598</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="46" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="52" t="s">
         <v>624</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="50" t="s">
         <v>632</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="50" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="50" t="s">
         <v>635</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="52" t="s">
         <v>628</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>605</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="50" t="s">
         <v>636</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="50" t="s">
         <v>622</v>
       </c>
     </row>
@@ -33547,7 +35581,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>401</v>
       </c>
       <c r="B3" t="s">

--- a/Filexel/Registrasi.xlsx
+++ b/Filexel/Registrasi.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F0F1E-585A-4BEF-8933-9C2684B5EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6EBD5B-09F9-4894-B9B9-774FA43F1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="2370" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2700" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
-    <sheet name="Identitas" sheetId="2" r:id="rId3"/>
-    <sheet name="PenerimaanTahanan" sheetId="3" r:id="rId4"/>
-    <sheet name="PenolakanTahanan" sheetId="4" r:id="rId5"/>
-    <sheet name="BarangBawaan" sheetId="5" r:id="rId6"/>
-    <sheet name="Catatan" sheetId="6" r:id="rId7"/>
-    <sheet name="Banhum" sheetId="7" r:id="rId8"/>
-    <sheet name="sursidang" sheetId="8" r:id="rId9"/>
-    <sheet name="MeninggalDunia" sheetId="9" r:id="rId10"/>
-    <sheet name="TahananRumah" sheetId="10" r:id="rId11"/>
-    <sheet name="PerpanjanganTahanan" sheetId="12" r:id="rId12"/>
+    <sheet name="Identitas" sheetId="2" r:id="rId2"/>
+    <sheet name="PenerimaanTahanan" sheetId="3" r:id="rId3"/>
+    <sheet name="PenolakanTahanan" sheetId="4" r:id="rId4"/>
+    <sheet name="BarangBawaan" sheetId="5" r:id="rId5"/>
+    <sheet name="Catatan" sheetId="6" r:id="rId6"/>
+    <sheet name="Banhum" sheetId="7" r:id="rId7"/>
+    <sheet name="sursidang" sheetId="8" r:id="rId8"/>
+    <sheet name="MeninggalDunia" sheetId="9" r:id="rId9"/>
+    <sheet name="TahananRumah" sheetId="10" r:id="rId10"/>
+    <sheet name="PerpanjanganTahanan" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3321" uniqueCount="727">
   <si>
     <t>NoInduk</t>
   </si>
@@ -1960,142 +1959,268 @@
     <t>22/05/2016</t>
   </si>
   <si>
-    <t>SRT/001/B3</t>
-  </si>
-  <si>
-    <t>13/05/2016</t>
-  </si>
-  <si>
-    <t>23/05/2016</t>
-  </si>
-  <si>
-    <t>22/05/1999</t>
-  </si>
-  <si>
-    <t>17/05/2016</t>
-  </si>
-  <si>
     <t>22/05/2017</t>
   </si>
   <si>
-    <t>SRT/001/B4</t>
-  </si>
-  <si>
-    <t>13/05/2017</t>
-  </si>
-  <si>
-    <t>23/05/2017</t>
-  </si>
-  <si>
-    <t>22/05/2000</t>
-  </si>
-  <si>
-    <t>17/05/2017</t>
-  </si>
-  <si>
-    <t>22/05/2018</t>
-  </si>
-  <si>
-    <t>SRT/001/B5</t>
-  </si>
-  <si>
-    <t>13/05/2018</t>
-  </si>
-  <si>
-    <t>23/05/2018</t>
-  </si>
-  <si>
-    <t>22/05/2001</t>
-  </si>
-  <si>
-    <t>17/05/2018</t>
-  </si>
-  <si>
     <t>22/05/2019</t>
   </si>
   <si>
-    <t>SRT/001/B6</t>
-  </si>
-  <si>
     <t>13/05/2019</t>
   </si>
   <si>
     <t>23/05/2019</t>
   </si>
   <si>
-    <t>22/05/2002</t>
-  </si>
-  <si>
     <t>17/05/2019</t>
   </si>
   <si>
     <t>22/05/2020</t>
   </si>
   <si>
-    <t>SRT/001/B7</t>
-  </si>
-  <si>
     <t>13/05/2020</t>
   </si>
   <si>
     <t>23/05/2020</t>
   </si>
   <si>
-    <t>22/05/2003</t>
-  </si>
-  <si>
     <t>17/05/2020</t>
   </si>
   <si>
     <t>22/05/2021</t>
   </si>
   <si>
-    <t>SRT/001/B8</t>
-  </si>
-  <si>
     <t>13/05/2021</t>
   </si>
   <si>
     <t>23/05/2021</t>
   </si>
   <si>
-    <t>22/05/2004</t>
-  </si>
-  <si>
     <t>17/05/2021</t>
   </si>
   <si>
     <t>22/05/2022</t>
   </si>
   <si>
-    <t>SRT/001/B9</t>
-  </si>
-  <si>
     <t>13/05/2022</t>
   </si>
   <si>
     <t>23/05/2022</t>
   </si>
   <si>
-    <t>22/05/2005</t>
-  </si>
-  <si>
     <t>17/05/2022</t>
   </si>
   <si>
-    <t>Cahyono</t>
-  </si>
-  <si>
-    <t>RGS/BI/002</t>
-  </si>
-  <si>
-    <t>RGS/BI/003</t>
-  </si>
-  <si>
-    <t>RGS/BI/004</t>
-  </si>
-  <si>
-    <t>RGS/BI/005</t>
+    <t>macanwaru</t>
+  </si>
+  <si>
+    <t>ularwaru</t>
+  </si>
+  <si>
+    <t>semutwaru</t>
+  </si>
+  <si>
+    <t>beruangwaru</t>
+  </si>
+  <si>
+    <t>koalawaru</t>
+  </si>
+  <si>
+    <t>Merpatiwaru</t>
+  </si>
+  <si>
+    <t>Lalatwaru</t>
+  </si>
+  <si>
+    <t>cacingwaru</t>
+  </si>
+  <si>
+    <t>ikanwaru</t>
+  </si>
+  <si>
+    <t>kijangpwaru</t>
+  </si>
+  <si>
+    <t>3023847482937841</t>
+  </si>
+  <si>
+    <t>3023847482937842</t>
+  </si>
+  <si>
+    <t>3023847482937843</t>
+  </si>
+  <si>
+    <t>3023847482937844</t>
+  </si>
+  <si>
+    <t>3023847482937845</t>
+  </si>
+  <si>
+    <t>3023847482937846</t>
+  </si>
+  <si>
+    <t>3023847482937847</t>
+  </si>
+  <si>
+    <t>3023847482937848</t>
+  </si>
+  <si>
+    <t>3023847482937849</t>
+  </si>
+  <si>
+    <t>pegawai negeri sipil</t>
+  </si>
+  <si>
+    <t>220847486</t>
+  </si>
+  <si>
+    <t>220847487</t>
+  </si>
+  <si>
+    <t>220847488</t>
+  </si>
+  <si>
+    <t>220847489</t>
+  </si>
+  <si>
+    <t>220847490</t>
+  </si>
+  <si>
+    <t>220847491</t>
+  </si>
+  <si>
+    <t>220847492</t>
+  </si>
+  <si>
+    <t>220847493</t>
+  </si>
+  <si>
+    <t>220847494</t>
+  </si>
+  <si>
+    <t>02/03/1999</t>
+  </si>
+  <si>
+    <t>07/04/2000</t>
+  </si>
+  <si>
+    <t>03/04/2000</t>
+  </si>
+  <si>
+    <t>04/12/1998</t>
+  </si>
+  <si>
+    <t>Ahli</t>
+  </si>
+  <si>
+    <t>Cukup Ahli</t>
+  </si>
+  <si>
+    <t>Kurang Ahli</t>
+  </si>
+  <si>
+    <t>kelelawarwaru</t>
+  </si>
+  <si>
+    <t>kucingwaru</t>
+  </si>
+  <si>
+    <t>Marmutwaru</t>
+  </si>
+  <si>
+    <t>uburuburwaru</t>
+  </si>
+  <si>
+    <t>Lintahwaru</t>
+  </si>
+  <si>
+    <t>Laronwaru</t>
+  </si>
+  <si>
+    <t>tikuswaru</t>
+  </si>
+  <si>
+    <t>kangguruwaru</t>
+  </si>
+  <si>
+    <t>cicakwaru</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/002</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/003</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/004</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/005</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/006</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/007</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/008</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/009</t>
+  </si>
+  <si>
+    <t>T-RGS/BI/010</t>
+  </si>
+  <si>
+    <t>RARA</t>
+  </si>
+  <si>
+    <t>RERE</t>
+  </si>
+  <si>
+    <t>RURU</t>
+  </si>
+  <si>
+    <t>RIRI</t>
+  </si>
+  <si>
+    <t>RORO</t>
+  </si>
+  <si>
+    <t>KIKI</t>
+  </si>
+  <si>
+    <t>KOKO</t>
+  </si>
+  <si>
+    <t>KUKU</t>
+  </si>
+  <si>
+    <t>KEKE</t>
+  </si>
+  <si>
+    <t>02/05/2019</t>
+  </si>
+  <si>
+    <t>02/05/2022</t>
+  </si>
+  <si>
+    <t>12/05/2019</t>
+  </si>
+  <si>
+    <t>15/05/2019</t>
+  </si>
+  <si>
+    <t>16/05/2019</t>
+  </si>
+  <si>
+    <t>27/04/2001</t>
+  </si>
+  <si>
+    <t>07/04/2001</t>
+  </si>
+  <si>
+    <t>16/12/2000</t>
   </si>
 </sst>
 </file>
@@ -2105,12 +2230,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\'dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2366,170 +2498,231 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2835,17 +3028,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BT13"/>
+  <dimension ref="A1:BT18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -2898,7 +3091,7 @@
     <col min="55" max="56" width="13.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" style="20" customWidth="1"/>
     <col min="60" max="61" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="23.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16" style="20" bestFit="1" customWidth="1"/>
@@ -2918,7 +3111,7 @@
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -3136,7 +3329,7 @@
       <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="63" t="s">
         <v>73</v>
       </c>
       <c r="D2" t="s">
@@ -3348,7 +3541,7 @@
       <c r="B3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="63" t="s">
         <v>109</v>
       </c>
       <c r="D3" t="s">
@@ -3557,2011 +3750,2147 @@
       <c r="A4" s="55"/>
     </row>
     <row r="5" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A5" s="55">
-        <v>162202210180001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="A5" s="55"/>
+      <c r="C5" s="63"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="42"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="12"/>
+    </row>
+    <row r="6" spans="1:72" ht="18.75" customHeight="1">
+      <c r="A6" s="55"/>
+      <c r="C6" s="63"/>
+      <c r="E6" s="58"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="42"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="12"/>
+    </row>
+    <row r="7" spans="1:72" ht="18.75" customHeight="1">
+      <c r="A7" s="57"/>
+      <c r="C7" s="63"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="42"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="19"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19"/>
+      <c r="BO7" s="19"/>
+      <c r="BP7" s="19"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19"/>
+      <c r="BS7" s="12"/>
+    </row>
+    <row r="8" spans="1:72" ht="18.75" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="C8" s="63"/>
+      <c r="E8" s="58"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="42"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="19"/>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="19"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="19"/>
+      <c r="BS8" s="12"/>
+    </row>
+    <row r="9" spans="1:72">
+      <c r="C9" s="63"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="42"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19"/>
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19"/>
+      <c r="BS9" s="12"/>
+    </row>
+    <row r="10" spans="1:72" s="68" customFormat="1">
+      <c r="A10" s="65">
+        <v>162202210180006</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>701</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>710</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="S10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="U10" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="W10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="X10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC10" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF10" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH10" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK10" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN10" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO10" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="AR10" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS10" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT10" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU10" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV10" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW10" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX10" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="BA10" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB10" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC10" s="79">
+        <v>10</v>
+      </c>
+      <c r="BD10" s="79">
+        <v>10</v>
+      </c>
+      <c r="BE10" s="79">
+        <v>6</v>
+      </c>
+      <c r="BF10" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG10" s="79">
+        <v>5000005</v>
+      </c>
+      <c r="BH10" s="74">
+        <v>10</v>
+      </c>
+      <c r="BI10" s="74">
+        <v>10</v>
+      </c>
+      <c r="BJ10" s="74">
+        <v>10</v>
+      </c>
+      <c r="BK10" s="79">
+        <v>2000005</v>
+      </c>
+      <c r="BL10" s="74">
+        <v>8</v>
+      </c>
+      <c r="BM10" s="74">
+        <v>8</v>
+      </c>
+      <c r="BN10" s="74">
+        <v>8</v>
+      </c>
+      <c r="BO10" s="74">
+        <v>2005</v>
+      </c>
+      <c r="BP10" s="74">
+        <v>6</v>
+      </c>
+      <c r="BQ10" s="74">
+        <v>6</v>
+      </c>
+      <c r="BR10" s="74">
+        <v>6</v>
+      </c>
+      <c r="BS10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="BT10" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" s="68" customFormat="1">
+      <c r="A11" s="65">
+        <v>162202210190001</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>702</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>702</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G11" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I11" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="J11" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="L11" s="70" t="s">
+        <v>646</v>
+      </c>
+      <c r="M11" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N11" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O11" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P11" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q11" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R11" s="75" t="s">
+        <v>686</v>
+      </c>
+      <c r="S11" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="T11" s="75" t="s">
+        <v>686</v>
+      </c>
+      <c r="U11" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="12" t="s">
+      <c r="V11" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="W11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="X11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC11" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF11" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="AG5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AG11" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH11" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="12" t="s">
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="AK5" s="42" t="s">
+      <c r="AK11" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM11" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN11" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO11" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="AR11" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS11" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT11" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU11" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV11" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW11" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX11" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY11" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AZ5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="AZ11" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="BA11" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB11" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="BC5" s="19">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="19">
-        <v>5</v>
-      </c>
-      <c r="BE5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BF5" t="s">
+      <c r="BC11" s="79">
+        <v>11</v>
+      </c>
+      <c r="BD11" s="79">
+        <v>11</v>
+      </c>
+      <c r="BE11" s="79">
+        <v>7</v>
+      </c>
+      <c r="BF11" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="BG5" s="19">
-        <v>5000000</v>
-      </c>
-      <c r="BH5" s="19">
-        <v>5</v>
-      </c>
-      <c r="BI5" s="19">
-        <v>5</v>
-      </c>
-      <c r="BJ5" s="19">
-        <v>5</v>
-      </c>
-      <c r="BK5" s="19">
-        <v>2000000</v>
-      </c>
-      <c r="BL5" s="19">
-        <v>3</v>
-      </c>
-      <c r="BM5" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN5" s="19">
-        <v>3</v>
-      </c>
-      <c r="BO5" s="19">
-        <v>2000</v>
-      </c>
-      <c r="BP5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT5" t="s">
+      <c r="BG11" s="79">
+        <v>5000006</v>
+      </c>
+      <c r="BH11" s="74">
+        <v>11</v>
+      </c>
+      <c r="BI11" s="74">
+        <v>11</v>
+      </c>
+      <c r="BJ11" s="74">
+        <v>11</v>
+      </c>
+      <c r="BK11" s="79">
+        <v>2000006</v>
+      </c>
+      <c r="BL11" s="74">
+        <v>9</v>
+      </c>
+      <c r="BM11" s="74">
+        <v>9</v>
+      </c>
+      <c r="BN11" s="74">
+        <v>9</v>
+      </c>
+      <c r="BO11" s="74">
+        <v>2006</v>
+      </c>
+      <c r="BP11" s="74">
+        <v>7</v>
+      </c>
+      <c r="BQ11" s="74">
+        <v>7</v>
+      </c>
+      <c r="BR11" s="74">
+        <v>7</v>
+      </c>
+      <c r="BS11" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="BT11" s="68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A6" s="55">
-        <v>162202210180002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="12" spans="1:72" s="68" customFormat="1">
+      <c r="A12" s="65">
+        <v>162202210190002</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>703</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G12" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H12" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I12" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="J12" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="M12" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N12" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O12" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P12" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q12" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R12" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="S12" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="T12" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="U12" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="12" t="s">
+      <c r="V12" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="W12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="X12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC12" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF12" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH6" s="12" t="s">
+      <c r="AG12" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH12" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="12" t="s">
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="AK6" s="42" t="s">
+      <c r="AK12" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL12" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN12" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO12" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR12" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AT12" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU12" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV12" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW12" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX12" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AY12" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AZ6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="AZ12" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="BA12" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BB12" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="BC6" s="19">
+      <c r="BC12" s="79">
+        <v>12</v>
+      </c>
+      <c r="BD12" s="79">
+        <v>12</v>
+      </c>
+      <c r="BE12" s="79">
+        <v>8</v>
+      </c>
+      <c r="BF12" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG12" s="79">
+        <v>5000007</v>
+      </c>
+      <c r="BH12" s="74">
+        <v>12</v>
+      </c>
+      <c r="BI12" s="74">
+        <v>12</v>
+      </c>
+      <c r="BJ12" s="74">
+        <v>12</v>
+      </c>
+      <c r="BK12" s="79">
+        <v>2000007</v>
+      </c>
+      <c r="BL12" s="74">
+        <v>10</v>
+      </c>
+      <c r="BM12" s="74">
+        <v>10</v>
+      </c>
+      <c r="BN12" s="74">
+        <v>10</v>
+      </c>
+      <c r="BO12" s="74">
+        <v>2007</v>
+      </c>
+      <c r="BP12" s="74">
+        <v>8</v>
+      </c>
+      <c r="BQ12" s="74">
+        <v>8</v>
+      </c>
+      <c r="BR12" s="74">
+        <v>8</v>
+      </c>
+      <c r="BS12" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="BT12" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" s="68" customFormat="1">
+      <c r="A13" s="65">
+        <v>162202210190003</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>704</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="S13" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="U13" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="W13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="X13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC13" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF13" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH13" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK13" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL13" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM13" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN13" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO13" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR13" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT13" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU13" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW13" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX13" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY13" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ13" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA13" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB13" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC13" s="79">
+        <v>13</v>
+      </c>
+      <c r="BD13" s="79">
+        <v>13</v>
+      </c>
+      <c r="BE13" s="79">
+        <v>9</v>
+      </c>
+      <c r="BF13" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG13" s="79">
+        <v>5000008</v>
+      </c>
+      <c r="BH13" s="74">
+        <v>13</v>
+      </c>
+      <c r="BI13" s="74">
+        <v>13</v>
+      </c>
+      <c r="BJ13" s="74">
+        <v>13</v>
+      </c>
+      <c r="BK13" s="79">
+        <v>2000008</v>
+      </c>
+      <c r="BL13" s="74">
+        <v>11</v>
+      </c>
+      <c r="BM13" s="74">
+        <v>11</v>
+      </c>
+      <c r="BN13" s="74">
+        <v>11</v>
+      </c>
+      <c r="BO13" s="74">
+        <v>2008</v>
+      </c>
+      <c r="BP13" s="74">
+        <v>9</v>
+      </c>
+      <c r="BQ13" s="74">
+        <v>9</v>
+      </c>
+      <c r="BR13" s="74">
+        <v>9</v>
+      </c>
+      <c r="BS13" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BT13" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" s="68" customFormat="1">
+      <c r="A14" s="78">
+        <v>162202210280015</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>705</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>714</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>641</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>642</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="S14" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="U14" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="W14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="X14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC14" s="71" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG14" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH14" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK14" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL14" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM14" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN14" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO14" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="AR14" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS14" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT14" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU14" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV14" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW14" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX14" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY14" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ14" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="BA14" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB14" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC14" s="79">
+        <v>10</v>
+      </c>
+      <c r="BD14" s="79">
+        <v>10</v>
+      </c>
+      <c r="BE14" s="79">
         <v>6</v>
       </c>
-      <c r="BD6" s="19">
+      <c r="BF14" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG14" s="79">
+        <v>5000005</v>
+      </c>
+      <c r="BH14" s="74">
+        <v>10</v>
+      </c>
+      <c r="BI14" s="74">
+        <v>10</v>
+      </c>
+      <c r="BJ14" s="74">
+        <v>10</v>
+      </c>
+      <c r="BK14" s="79">
+        <v>2000005</v>
+      </c>
+      <c r="BL14" s="74">
+        <v>8</v>
+      </c>
+      <c r="BM14" s="74">
+        <v>8</v>
+      </c>
+      <c r="BN14" s="74">
+        <v>8</v>
+      </c>
+      <c r="BO14" s="74">
+        <v>2005</v>
+      </c>
+      <c r="BP14" s="74">
         <v>6</v>
       </c>
-      <c r="BE6" s="19">
-        <v>2</v>
-      </c>
-      <c r="BF6" t="s">
+      <c r="BQ14" s="74">
+        <v>6</v>
+      </c>
+      <c r="BR14" s="74">
+        <v>6</v>
+      </c>
+      <c r="BS14" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="BT14" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="BG6" s="19">
-        <v>5000001</v>
-      </c>
-      <c r="BH6" s="19">
-        <v>6</v>
-      </c>
-      <c r="BI6" s="19">
-        <v>6</v>
-      </c>
-      <c r="BJ6" s="19">
-        <v>6</v>
-      </c>
-      <c r="BK6" s="19">
-        <v>2000001</v>
-      </c>
-      <c r="BL6" s="19">
-        <v>4</v>
-      </c>
-      <c r="BM6" s="19">
-        <v>4</v>
-      </c>
-      <c r="BN6" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO6" s="19">
-        <v>2001</v>
-      </c>
-      <c r="BP6" s="19">
-        <v>2</v>
-      </c>
-      <c r="BQ6" s="19">
-        <v>2</v>
-      </c>
-      <c r="BR6" s="19">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT6" t="s">
+    </row>
+    <row r="15" spans="1:72" s="68" customFormat="1">
+      <c r="A15" s="78">
+        <v>162202210280016</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>706</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>706</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>715</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="L15" s="70" t="s">
+        <v>646</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="S15" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="77" t="s">
+        <v>685</v>
+      </c>
+      <c r="U15" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="W15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="X15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC15" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG15" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH15" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK15" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL15" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM15" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN15" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO15" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="AR15" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS15" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT15" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU15" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV15" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX15" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY15" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ15" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="BA15" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB15" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC15" s="79">
+        <v>11</v>
+      </c>
+      <c r="BD15" s="79">
+        <v>11</v>
+      </c>
+      <c r="BE15" s="79">
+        <v>7</v>
+      </c>
+      <c r="BF15" s="68" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A7" s="57">
-        <v>162202210180003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="BG15" s="79">
+        <v>5000006</v>
+      </c>
+      <c r="BH15" s="74">
+        <v>11</v>
+      </c>
+      <c r="BI15" s="74">
+        <v>11</v>
+      </c>
+      <c r="BJ15" s="74">
+        <v>11</v>
+      </c>
+      <c r="BK15" s="79">
+        <v>2000006</v>
+      </c>
+      <c r="BL15" s="74">
+        <v>9</v>
+      </c>
+      <c r="BM15" s="74">
+        <v>9</v>
+      </c>
+      <c r="BN15" s="74">
+        <v>9</v>
+      </c>
+      <c r="BO15" s="74">
+        <v>2006</v>
+      </c>
+      <c r="BP15" s="74">
+        <v>7</v>
+      </c>
+      <c r="BQ15" s="74">
+        <v>7</v>
+      </c>
+      <c r="BR15" s="74">
+        <v>7</v>
+      </c>
+      <c r="BS15" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="BT15" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" s="68" customFormat="1">
+      <c r="A16" s="78">
+        <v>162202210280017</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>707</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>638</v>
       </c>
-      <c r="D7" t="s">
-        <v>639</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D16" s="66" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>716</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>724</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="70" t="s">
+        <v>724</v>
+      </c>
+      <c r="U16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V16" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="W16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="X16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC16" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF16" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH16" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK16" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM16" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN16" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO16" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="AR16" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS16" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU16" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV16" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW16" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX16" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY16" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ16" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="BA16" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB16" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC16" s="79">
+        <v>12</v>
+      </c>
+      <c r="BD16" s="79">
+        <v>12</v>
+      </c>
+      <c r="BE16" s="79">
+        <v>8</v>
+      </c>
+      <c r="BF16" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG16" s="79">
+        <v>5000007</v>
+      </c>
+      <c r="BH16" s="74">
+        <v>12</v>
+      </c>
+      <c r="BI16" s="74">
+        <v>12</v>
+      </c>
+      <c r="BJ16" s="74">
+        <v>12</v>
+      </c>
+      <c r="BK16" s="79">
+        <v>2000007</v>
+      </c>
+      <c r="BL16" s="74">
+        <v>10</v>
+      </c>
+      <c r="BM16" s="74">
+        <v>10</v>
+      </c>
+      <c r="BN16" s="74">
+        <v>10</v>
+      </c>
+      <c r="BO16" s="74">
+        <v>2007</v>
+      </c>
+      <c r="BP16" s="74">
+        <v>8</v>
+      </c>
+      <c r="BQ16" s="74">
+        <v>8</v>
+      </c>
+      <c r="BR16" s="74">
+        <v>8</v>
+      </c>
+      <c r="BS16" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="BT16" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" s="68" customFormat="1">
+      <c r="A17" s="78">
+        <v>162202210280018</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>708</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>708</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>717</v>
+      </c>
+      <c r="F17" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G17" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H17" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I17" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J17" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="S17" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="75" t="s">
+        <v>725</v>
+      </c>
+      <c r="U17" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="V17" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="W17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="X17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC17" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF17" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH17" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK17" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL17" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM17" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN17" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO17" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR17" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS17" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT17" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU17" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV17" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW17" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX17" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY17" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ17" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA17" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB17" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC17" s="79">
+        <v>13</v>
+      </c>
+      <c r="BD17" s="79">
+        <v>13</v>
+      </c>
+      <c r="BE17" s="79">
+        <v>9</v>
+      </c>
+      <c r="BF17" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG17" s="79">
+        <v>5000008</v>
+      </c>
+      <c r="BH17" s="74">
+        <v>13</v>
+      </c>
+      <c r="BI17" s="74">
+        <v>13</v>
+      </c>
+      <c r="BJ17" s="74">
+        <v>13</v>
+      </c>
+      <c r="BK17" s="79">
+        <v>2000008</v>
+      </c>
+      <c r="BL17" s="74">
+        <v>11</v>
+      </c>
+      <c r="BM17" s="74">
+        <v>11</v>
+      </c>
+      <c r="BN17" s="74">
+        <v>11</v>
+      </c>
+      <c r="BO17" s="74">
+        <v>2008</v>
+      </c>
+      <c r="BP17" s="74">
+        <v>9</v>
+      </c>
+      <c r="BQ17" s="74">
+        <v>9</v>
+      </c>
+      <c r="BR17" s="74">
+        <v>9</v>
+      </c>
+      <c r="BS17" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BT17" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" s="68" customFormat="1">
+      <c r="A18" s="78">
+        <v>162202210280019</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>709</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>638</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="D18" s="66" t="s">
+        <v>709</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>718</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>653</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="L18" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="M18" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N18" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O18" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P18" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q18" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="R18" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="S18" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="T18" s="76" t="s">
+        <v>726</v>
+      </c>
+      <c r="U18" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="12" t="s">
+      <c r="V18" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="W18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="X18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC18" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF18" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="AG7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AG18" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AH18" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="12" t="s">
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="AK7" s="42" t="s">
+      <c r="AK18" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL18" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM18" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN18" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AR7" t="s">
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR18" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS18" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT18" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU18" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV18" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW18" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX18" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AY18" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AZ7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="BA7" t="s">
+      <c r="AZ18" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA18" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BB18" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="BC7" s="19">
-        <v>7</v>
-      </c>
-      <c r="BD7" s="19">
-        <v>7</v>
-      </c>
-      <c r="BE7" s="19">
-        <v>3</v>
-      </c>
-      <c r="BF7" t="s">
+      <c r="BC18" s="79">
+        <v>13</v>
+      </c>
+      <c r="BD18" s="79">
+        <v>13</v>
+      </c>
+      <c r="BE18" s="79">
+        <v>9</v>
+      </c>
+      <c r="BF18" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="BG7" s="19">
-        <v>5000002</v>
-      </c>
-      <c r="BH7" s="19">
-        <v>7</v>
-      </c>
-      <c r="BI7" s="19">
-        <v>7</v>
-      </c>
-      <c r="BJ7" s="19">
-        <v>7</v>
-      </c>
-      <c r="BK7" s="19">
-        <v>2000002</v>
-      </c>
-      <c r="BL7" s="19">
-        <v>5</v>
-      </c>
-      <c r="BM7" s="19">
-        <v>5</v>
-      </c>
-      <c r="BN7" s="19">
-        <v>5</v>
-      </c>
-      <c r="BO7" s="19">
-        <v>2002</v>
-      </c>
-      <c r="BP7" s="19">
-        <v>3</v>
-      </c>
-      <c r="BQ7" s="19">
-        <v>3</v>
-      </c>
-      <c r="BR7" s="19">
-        <v>3</v>
-      </c>
-      <c r="BS7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="BT7" t="s">
+      <c r="BG18" s="79">
+        <v>5000008</v>
+      </c>
+      <c r="BH18" s="74">
+        <v>13</v>
+      </c>
+      <c r="BI18" s="74">
+        <v>13</v>
+      </c>
+      <c r="BJ18" s="74">
+        <v>13</v>
+      </c>
+      <c r="BK18" s="79">
+        <v>2000008</v>
+      </c>
+      <c r="BL18" s="74">
+        <v>11</v>
+      </c>
+      <c r="BM18" s="74">
+        <v>11</v>
+      </c>
+      <c r="BN18" s="74">
+        <v>11</v>
+      </c>
+      <c r="BO18" s="74">
+        <v>2008</v>
+      </c>
+      <c r="BP18" s="74">
+        <v>9</v>
+      </c>
+      <c r="BQ18" s="74">
+        <v>9</v>
+      </c>
+      <c r="BR18" s="74">
+        <v>9</v>
+      </c>
+      <c r="BS18" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="BT18" s="68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:72" ht="18.75" customHeight="1">
-      <c r="A8" s="55">
-        <v>162202210180004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="D8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>680</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="M8" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="U8" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG8" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH8" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK8" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ8" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC8" s="19">
-        <v>8</v>
-      </c>
-      <c r="BD8" s="19">
-        <v>8</v>
-      </c>
-      <c r="BE8" s="19">
-        <v>4</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG8" s="19">
-        <v>5000003</v>
-      </c>
-      <c r="BH8" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI8" s="19">
-        <v>8</v>
-      </c>
-      <c r="BJ8" s="19">
-        <v>8</v>
-      </c>
-      <c r="BK8" s="19">
-        <v>2000003</v>
-      </c>
-      <c r="BL8" s="19">
-        <v>6</v>
-      </c>
-      <c r="BM8" s="19">
-        <v>6</v>
-      </c>
-      <c r="BN8" s="19">
-        <v>6</v>
-      </c>
-      <c r="BO8" s="19">
-        <v>2003</v>
-      </c>
-      <c r="BP8" s="19">
-        <v>4</v>
-      </c>
-      <c r="BQ8" s="19">
-        <v>4</v>
-      </c>
-      <c r="BR8" s="19">
-        <v>4</v>
-      </c>
-      <c r="BS8" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:72">
-      <c r="A9" s="56">
-        <v>162202210180005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="D9" t="s">
-        <v>651</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="U9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="AH9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ9" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC9" s="19">
-        <v>9</v>
-      </c>
-      <c r="BD9" s="19">
-        <v>9</v>
-      </c>
-      <c r="BE9" s="19">
-        <v>5</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG9" s="19">
-        <v>5000004</v>
-      </c>
-      <c r="BH9" s="19">
-        <v>9</v>
-      </c>
-      <c r="BI9" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ9" s="19">
-        <v>9</v>
-      </c>
-      <c r="BK9" s="19">
-        <v>2000004</v>
-      </c>
-      <c r="BL9" s="19">
-        <v>7</v>
-      </c>
-      <c r="BM9" s="19">
-        <v>7</v>
-      </c>
-      <c r="BN9" s="19">
-        <v>7</v>
-      </c>
-      <c r="BO9" s="19">
-        <v>2004</v>
-      </c>
-      <c r="BP9" s="19">
-        <v>5</v>
-      </c>
-      <c r="BQ9" s="19">
-        <v>5</v>
-      </c>
-      <c r="BR9" s="19">
-        <v>5</v>
-      </c>
-      <c r="BS9" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:72">
-      <c r="A10" s="56">
-        <v>162202210180006</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>681</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="D10" t="s">
-        <v>657</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>680</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="M10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="S10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="U10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK10" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ10" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC10" s="19">
-        <v>10</v>
-      </c>
-      <c r="BD10" s="19">
-        <v>10</v>
-      </c>
-      <c r="BE10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG10" s="19">
-        <v>5000005</v>
-      </c>
-      <c r="BH10" s="19">
-        <v>10</v>
-      </c>
-      <c r="BI10" s="19">
-        <v>10</v>
-      </c>
-      <c r="BJ10" s="19">
-        <v>10</v>
-      </c>
-      <c r="BK10" s="19">
-        <v>2000005</v>
-      </c>
-      <c r="BL10" s="19">
-        <v>8</v>
-      </c>
-      <c r="BM10" s="19">
-        <v>8</v>
-      </c>
-      <c r="BN10" s="19">
-        <v>8</v>
-      </c>
-      <c r="BO10" s="19">
-        <v>2005</v>
-      </c>
-      <c r="BP10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BR10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BS10" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72">
-      <c r="A11" s="56">
-        <v>162202210190001</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="D11" t="s">
-        <v>663</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="S11" t="s">
-        <v>88</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="U11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK11" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ11" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC11" s="19">
-        <v>11</v>
-      </c>
-      <c r="BD11" s="19">
-        <v>11</v>
-      </c>
-      <c r="BE11" s="19">
-        <v>7</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG11" s="19">
-        <v>5000006</v>
-      </c>
-      <c r="BH11" s="19">
-        <v>11</v>
-      </c>
-      <c r="BI11" s="19">
-        <v>11</v>
-      </c>
-      <c r="BJ11" s="19">
-        <v>11</v>
-      </c>
-      <c r="BK11" s="19">
-        <v>2000006</v>
-      </c>
-      <c r="BL11" s="19">
-        <v>9</v>
-      </c>
-      <c r="BM11" s="19">
-        <v>9</v>
-      </c>
-      <c r="BN11" s="19">
-        <v>9</v>
-      </c>
-      <c r="BO11" s="19">
-        <v>2006</v>
-      </c>
-      <c r="BP11" s="19">
-        <v>7</v>
-      </c>
-      <c r="BQ11" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR11" s="19">
-        <v>7</v>
-      </c>
-      <c r="BS11" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:72">
-      <c r="A12" s="56">
-        <v>162202210190002</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>683</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D12" t="s">
-        <v>669</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>680</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="S12" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="U12" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="AH12" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK12" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ12" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC12" s="19">
-        <v>12</v>
-      </c>
-      <c r="BD12" s="19">
-        <v>12</v>
-      </c>
-      <c r="BE12" s="19">
-        <v>8</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG12" s="19">
-        <v>5000007</v>
-      </c>
-      <c r="BH12" s="19">
-        <v>12</v>
-      </c>
-      <c r="BI12" s="19">
-        <v>12</v>
-      </c>
-      <c r="BJ12" s="19">
-        <v>12</v>
-      </c>
-      <c r="BK12" s="19">
-        <v>2000007</v>
-      </c>
-      <c r="BL12" s="19">
-        <v>10</v>
-      </c>
-      <c r="BM12" s="19">
-        <v>10</v>
-      </c>
-      <c r="BN12" s="19">
-        <v>10</v>
-      </c>
-      <c r="BO12" s="19">
-        <v>2007</v>
-      </c>
-      <c r="BP12" s="19">
-        <v>8</v>
-      </c>
-      <c r="BQ12" s="19">
-        <v>8</v>
-      </c>
-      <c r="BR12" s="19">
-        <v>8</v>
-      </c>
-      <c r="BS12" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72">
-      <c r="A13" s="56">
-        <v>162202210190003</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>684</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="D13" t="s">
-        <v>675</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="M13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="S13" t="s">
-        <v>88</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="U13" t="s">
-        <v>88</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG13" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK13" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ13" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC13" s="19">
-        <v>13</v>
-      </c>
-      <c r="BD13" s="19">
-        <v>13</v>
-      </c>
-      <c r="BE13" s="19">
-        <v>9</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG13" s="19">
-        <v>5000008</v>
-      </c>
-      <c r="BH13" s="19">
-        <v>13</v>
-      </c>
-      <c r="BI13" s="19">
-        <v>13</v>
-      </c>
-      <c r="BJ13" s="19">
-        <v>13</v>
-      </c>
-      <c r="BK13" s="19">
-        <v>2000008</v>
-      </c>
-      <c r="BL13" s="19">
-        <v>11</v>
-      </c>
-      <c r="BM13" s="19">
-        <v>11</v>
-      </c>
-      <c r="BN13" s="19">
-        <v>11</v>
-      </c>
-      <c r="BO13" s="19">
-        <v>2008</v>
-      </c>
-      <c r="BP13" s="19">
-        <v>9</v>
-      </c>
-      <c r="BQ13" s="19">
-        <v>9</v>
-      </c>
-      <c r="BR13" s="19">
-        <v>9</v>
-      </c>
-      <c r="BS13" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>107</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" t="s">
-        <v>556</v>
-      </c>
-      <c r="I2" t="s">
-        <v>557</v>
-      </c>
-      <c r="J2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -5669,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29EFAA2-10BF-4038-BE3E-3FC9DFB483A3}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -6042,33 +6371,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7712523E-7431-4CAA-A240-34C5DD7C838D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:CH8781"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView topLeftCell="H18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8782,111 +9099,4574 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:86" ht="19.5" customHeight="1">
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:86" ht="19.5" customHeight="1">
-      <c r="P14" s="15"/>
+      <c r="A13" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y13" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z13" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA13" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB13" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC13" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG13" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH13" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI13" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ13" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK13" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL13" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM13" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN13" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO13" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP13" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ13" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR13" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS13" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT13" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW13" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX13" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY13" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ13" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC13" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG13" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH13" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI13" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ13" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK13" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM13" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO13" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP13" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ13" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR13" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT13" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV13" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW13" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BX13" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY13" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ13" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA13" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB13" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC13" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD13" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE13" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF13" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" ht="20.25" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="25">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z14" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB14" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC14" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG14" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH14" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI14" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ14" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK14" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL14" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM14" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN14" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO14" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP14" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ14" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR14" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS14" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT14" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX14" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY14" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ14" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC14" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD14" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE14" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF14" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG14" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH14" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI14" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ14" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK14" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL14" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM14" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN14" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO14" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP14" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ14" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR14" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS14" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT14" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU14" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV14" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW14" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX14" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY14" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ14" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA14" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB14" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC14" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD14" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE14" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF14" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="15" spans="1:86" ht="19.5" customHeight="1">
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:86" ht="19.5" customHeight="1">
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="16:16" ht="19.5" customHeight="1">
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="16:16" ht="19.5" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z15" s="59" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA15" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD15" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE15" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG15" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH15" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI15" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ15" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK15" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL15" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM15" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AN15" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO15" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP15" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ15" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR15" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS15" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT15" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX15" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC15" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD15" s="37">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF15" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG15" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH15" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI15" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ15" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="BK15" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL15" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM15" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN15" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO15" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="BP15" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="BQ15" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="BR15" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="BS15" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT15" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU15" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV15" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW15" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA15" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB15" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC15" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD15" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="CE15" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF15" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="CG15" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="CH15" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" ht="20.25" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>668</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X16" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y16" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z16" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA16" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC16" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG16" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH16" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI16" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ16" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK16" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL16" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM16" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN16" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO16" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP16" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ16" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR16" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS16" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT16" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW16" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX16" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="BG16" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH16" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI16" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ16" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK16" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL16" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM16" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN16" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO16" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP16" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="BQ16" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR16" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS16" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT16" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU16" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV16" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW16" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX16" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY16" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ16" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA16" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB16" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC16" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD16" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE16" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF16" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="X17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z17" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA17" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB17" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC17" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH17" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI17" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ17" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK17" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL17" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM17" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN17" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ17" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR17" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS17" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT17" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX17" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA17" s="27"/>
+      <c r="BD17" s="27"/>
+      <c r="BG17" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH17" s="27">
+        <v>170</v>
+      </c>
+      <c r="BI17" s="27">
+        <v>70</v>
+      </c>
+      <c r="BJ17" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK17" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL17" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM17" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN17" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO17" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP17" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ17" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR17" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS17" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT17" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU17" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV17" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW17" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB17" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC17" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD17" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE17" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF17" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG17" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="W18" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X18" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z18" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA18" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB18" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC18" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG18" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI18" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ18" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK18" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL18" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM18" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AN18" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO18" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP18" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ18" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR18" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS18" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT18" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW18" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX18" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY18" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ18" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA18" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC18" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD18" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG18" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH18" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI18" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ18" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK18" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM18" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO18" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP18" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ18" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR18" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT18" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV18" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW18" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BX18" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY18" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ18" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA18" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB18" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC18" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD18" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE18" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF18" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W19" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X19" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z19" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA19" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB19" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC19" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG19" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH19" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI19" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK19" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL19" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM19" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN19" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO19" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP19" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ19" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR19" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS19" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT19" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW19" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX19" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ19" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA19" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC19" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD19" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE19" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF19" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG19" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH19" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI19" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ19" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK19" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL19" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM19" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN19" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO19" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP19" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ19" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR19" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS19" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT19" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU19" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV19" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW19" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB19" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC19" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD19" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE19" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF19" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M20" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="X20" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z20" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA20" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB20" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC20" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE20" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG20" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH20" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI20" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ20" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK20" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL20" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM20" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN20" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO20" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP20" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ20" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR20" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS20" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT20" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW20" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX20" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC20" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD20" s="37">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF20" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG20" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH20" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI20" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ20" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="BK20" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL20" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM20" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN20" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO20" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="BP20" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ20" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="BR20" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="BS20" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT20" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU20" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV20" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW20" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX20" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY20" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ20" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA20" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB20" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC20" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD20" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="CE20" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF20" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="CG20" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="CH20" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M21" s="59" t="s">
+        <v>673</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="W21" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X21" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z21" s="59" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA21" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB21" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC21" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG21" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH21" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI21" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ21" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK21" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL21" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM21" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AN21" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO21" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP21" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ21" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR21" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS21" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT21" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW21" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX21" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="BG21" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH21" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI21" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ21" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK21" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL21" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM21" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN21" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO21" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP21" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ21" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR21" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS21" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT21" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU21" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV21" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW21" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX21" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY21" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ21" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA21" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC21" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD21" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE21" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF21" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A22" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>674</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="X22" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z22" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA22" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC22" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG22" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH22" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI22" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ22" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK22" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL22" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM22" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN22" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP22" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ22" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR22" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS22" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT22" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU22" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW22" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX22" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BG22" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH22" s="27">
+        <v>170</v>
+      </c>
+      <c r="BI22" s="27">
+        <v>70</v>
+      </c>
+      <c r="BJ22" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK22" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL22" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM22" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN22" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO22" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP22" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ22" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR22" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS22" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT22" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU22" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV22" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW22" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX22" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY22" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ22" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA22" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB22" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC22" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD22" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE22" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG22" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:86" ht="19.5" customHeight="1">
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P24" s="15"/>
-    </row>
-    <row r="25" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P25" s="15"/>
-    </row>
-    <row r="26" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P27" s="15"/>
-    </row>
-    <row r="28" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P28" s="15"/>
-    </row>
-    <row r="29" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P29" s="15"/>
-    </row>
-    <row r="30" spans="16:16" ht="18.75" customHeight="1">
+    <row r="24" spans="1:86" ht="20.25" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M24" s="59" t="s">
+        <v>668</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="W24" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X24" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z24" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA24" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB24" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC24" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG24" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH24" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI24" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ24" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK24" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL24" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM24" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN24" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO24" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP24" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ24" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR24" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS24" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT24" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX24" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="BG24" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH24" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI24" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ24" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK24" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL24" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM24" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN24" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO24" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP24" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="BQ24" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR24" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS24" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT24" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU24" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV24" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW24" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX24" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY24" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ24" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA24" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB24" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC24" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD24" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE24" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF24" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="W25" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="X25" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y25" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z25" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA25" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC25" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG25" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH25" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI25" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ25" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK25" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL25" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM25" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN25" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO25" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP25" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ25" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR25" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS25" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT25" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU25" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX25" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA25" s="27"/>
+      <c r="BD25" s="27"/>
+      <c r="BG25" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH25" s="27">
+        <v>170</v>
+      </c>
+      <c r="BI25" s="27">
+        <v>70</v>
+      </c>
+      <c r="BJ25" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK25" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL25" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM25" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN25" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO25" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP25" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ25" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR25" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS25" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT25" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU25" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV25" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW25" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB25" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC25" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD25" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE25" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF25" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG25" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V26" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="W26" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z26" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA26" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB26" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC26" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH26" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ26" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK26" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL26" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM26" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AN26" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO26" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP26" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ26" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR26" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS26" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT26" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW26" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX26" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY26" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ26" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC26" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG26" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH26" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI26" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ26" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK26" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM26" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO26" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP26" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ26" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR26" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT26" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW26" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BX26" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY26" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ26" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA26" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB26" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC26" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD26" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE26" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF26" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:86" ht="20.25" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P27" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W27" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X27" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z27" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA27" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC27" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG27" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH27" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI27" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ27" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK27" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL27" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM27" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN27" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO27" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP27" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ27" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR27" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS27" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT27" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX27" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY27" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ27" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA27" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC27" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD27" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE27" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF27" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG27" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH27" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI27" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ27" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK27" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL27" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM27" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN27" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO27" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP27" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ27" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR27" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS27" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT27" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU27" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV27" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW27" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX27" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY27" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ27" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA27" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB27" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC27" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD27" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE27" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF27" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U28" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z28" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB28" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC28" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG28" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH28" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI28" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ28" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK28" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL28" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM28" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN28" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO28" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP28" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ28" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR28" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS28" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT28" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW28" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX28" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY28" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ28" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA28" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC28" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD28" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE28" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF28" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG28" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH28" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI28" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ28" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK28" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL28" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM28" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN28" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO28" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP28" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ28" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR28" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS28" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT28" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU28" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV28" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW28" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX28" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY28" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ28" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA28" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB28" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC28" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD28" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE28" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF28" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="25">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P29" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W29" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z29" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA29" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB29" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC29" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG29" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH29" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI29" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ29" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK29" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL29" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM29" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="AN29" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO29" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP29" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ29" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR29" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS29" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT29" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW29" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX29" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY29" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ29" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA29" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC29" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD29" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE29" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF29" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG29" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH29" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI29" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ29" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK29" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL29" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM29" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN29" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO29" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP29" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ29" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR29" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS29" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT29" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU29" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV29" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW29" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB29" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC29" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD29" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE29" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF29" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:86" ht="18.75" customHeight="1">
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P31" s="15"/>
-    </row>
-    <row r="32" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P32" s="15"/>
-    </row>
-    <row r="33" spans="16:16" ht="18.75" customHeight="1">
-      <c r="P33" s="15"/>
-    </row>
-    <row r="34" spans="16:16" ht="18.75" customHeight="1">
+    <row r="31" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A31" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>669</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="P31" s="61" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q31" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V31" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y31" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z31" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA31" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB31" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC31" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG31" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH31" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI31" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ31" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK31" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL31" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM31" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN31" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO31" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP31" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ31" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR31" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS31" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AT31" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW31" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX31" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BG31" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH31" s="27">
+        <v>170</v>
+      </c>
+      <c r="BI31" s="27">
+        <v>70</v>
+      </c>
+      <c r="BJ31" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK31" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL31" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM31" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN31" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO31" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP31" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="BQ31" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR31" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS31" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT31" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU31" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV31" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW31" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX31" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY31" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ31" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA31" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB31" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC31" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD31" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE31" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF31" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG31" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:86" ht="19.5" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="U32" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X32" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z32" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA32" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB32" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC32" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG32" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH32" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI32" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ32" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK32" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AL32" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM32" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AN32" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO32" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP32" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ32" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR32" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS32" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT32" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU32" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW32" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX32" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY32" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AZ32" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA32" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC32" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD32" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG32" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH32" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI32" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ32" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK32" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL32" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM32" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN32" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO32" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP32" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ32" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR32" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="BS32" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT32" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="BU32" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV32" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW32" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="BX32" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY32" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ32" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA32" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB32" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC32" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD32" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="CE32" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF32" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:84" ht="20.25" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="25">
+        <v>2</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P33" s="60" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X33" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y33" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z33" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB33" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC33" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG33" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH33" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI33" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ33" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK33" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AL33" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM33" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN33" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO33" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP33" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ33" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR33" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS33" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT33" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX33" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY33" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ33" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA33" s="25">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC33" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD33" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE33" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF33" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG33" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH33" s="38">
+        <v>170</v>
+      </c>
+      <c r="BI33" s="38">
+        <v>70</v>
+      </c>
+      <c r="BJ33" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK33" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL33" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM33" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="BN33" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO33" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP33" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ33" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR33" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS33" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT33" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="BU33" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV33" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW33" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="BX33" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY33" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ33" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA33" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB33" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC33" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD33" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="CE33" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="CF33" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" ht="18.75" customHeight="1">
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="16:16" ht="18.75" customHeight="1">
+    <row r="35" spans="1:84" ht="18.75" customHeight="1">
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="16:16" ht="18.75" customHeight="1">
+    <row r="36" spans="1:84" ht="18.75" customHeight="1">
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="16:16" ht="18.75" customHeight="1">
+    <row r="37" spans="1:84" ht="18.75" customHeight="1">
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="16:16" ht="18.75" customHeight="1">
+    <row r="38" spans="1:84" ht="18.75" customHeight="1">
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="16:16" ht="18.75" customHeight="1">
+    <row r="39" spans="1:84" ht="18.75" customHeight="1">
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="16:16" ht="18.75" customHeight="1">
+    <row r="40" spans="1:84" ht="18.75" customHeight="1">
       <c r="P40" s="15"/>
     </row>
-    <row r="41" spans="16:16" ht="18.75" customHeight="1">
+    <row r="41" spans="1:84" ht="18.75" customHeight="1">
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="16:16" ht="18.75" customHeight="1">
+    <row r="42" spans="1:84" ht="18.75" customHeight="1">
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="16:16" ht="18.75" customHeight="1">
+    <row r="43" spans="1:84" ht="18.75" customHeight="1">
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="16:16" ht="18.75" customHeight="1">
+    <row r="44" spans="1:84" ht="18.75" customHeight="1">
       <c r="P44" s="15"/>
     </row>
-    <row r="45" spans="16:16" ht="18.75" customHeight="1">
+    <row r="45" spans="1:84" ht="18.75" customHeight="1">
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="16:16" ht="18.75" customHeight="1">
+    <row r="46" spans="1:84" ht="18.75" customHeight="1">
       <c r="P46" s="15"/>
     </row>
-    <row r="47" spans="16:16" ht="18.75" customHeight="1">
+    <row r="47" spans="1:84" ht="18.75" customHeight="1">
       <c r="P47" s="15"/>
     </row>
-    <row r="48" spans="16:16" ht="18.75" customHeight="1">
+    <row r="48" spans="1:84" ht="18.75" customHeight="1">
       <c r="P48" s="15"/>
     </row>
     <row r="49" spans="16:16" ht="18.75" customHeight="1">
@@ -35093,7 +39873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -35261,7 +40041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -35429,7 +40209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -35533,7 +40313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -35613,7 +40393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -36027,7 +40807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -36446,4 +41226,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>